--- a/Spatial and Temporal Scales Spreadsheet.xlsx
+++ b/Spatial and Temporal Scales Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\Rclass2019\tropical_cyclone_health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A80A1A2-A72A-4CBC-8779-B4F2F35BEAF0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B1396D-1365-493E-A429-FB9C1C4A08E2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{44ACD03A-C16A-417F-891A-761EE6BC5BA5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Point Location (Lat/Long)</t>
   </si>
@@ -165,19 +165,19 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,7 +495,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,54 +514,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="H1" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="H1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="1"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -618,6 +618,9 @@
       </c>
       <c r="K4" t="s">
         <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">

--- a/Spatial and Temporal Scales Spreadsheet.xlsx
+++ b/Spatial and Temporal Scales Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\Rclass2019\tropical_cyclone_health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B1396D-1365-493E-A429-FB9C1C4A08E2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B59CDE3-A207-4CAC-95B4-FC6C2D19063D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{44ACD03A-C16A-417F-891A-761EE6BC5BA5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>Point Location (Lat/Long)</t>
   </si>
@@ -109,13 +109,25 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>[@schwartz2018preliminary]</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>[@bourque2006weathering]</t>
+  </si>
+  <si>
+    <t>[@harville2010population]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +139,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF385623"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -163,13 +181,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -492,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E855725F-0486-44FC-A299-54410BF198C0}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,34 +530,36 @@
     <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" customWidth="1"/>
+    <col min="12" max="12" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="H1" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="H1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="5"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="8"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -558,14 +587,17 @@
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -593,14 +625,17 @@
       <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -610,37 +645,71 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
       <c r="J4" t="s">
         <v>23</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>20</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
       <c r="J5" t="s">
         <v>18</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>13</v>
       </c>
+      <c r="M5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J11" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
